--- a/yabuki-a/PM演習矢吹a/コスト見積書/コスト見積もりA班.xlsx
+++ b/yabuki-a/PM演習矢吹a/コスト見積書/コスト見積もりA班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\コスト見積書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>ログイン</t>
     <phoneticPr fontId="2"/>
@@ -694,6 +694,128 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る機能</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新機能</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初回登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マニュアル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム処理設計書</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理データ設計書</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認作業</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -748,12 +870,36 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -941,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,17 +1145,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1020,13 +1162,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1958,7 +2116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
@@ -1969,20 +2127,20 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1998,20 +2156,20 @@
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2027,18 +2185,18 @@
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2054,18 +2212,18 @@
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2081,18 +2239,18 @@
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2108,20 +2266,20 @@
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2137,18 +2295,18 @@
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2164,18 +2322,18 @@
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2191,18 +2349,18 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2218,20 +2376,20 @@
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2247,20 +2405,20 @@
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2280,16 +2438,16 @@
         <v>53</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2309,16 +2467,16 @@
         <v>42</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2334,18 +2492,18 @@
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="5" t="s">
         <v>4</v>
       </c>
@@ -2409,16 +2567,16 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2456,16 +2614,16 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2497,16 +2655,16 @@
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2535,16 +2693,16 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2614,16 +2772,16 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2649,16 +2807,16 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2684,16 +2842,16 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2719,16 +2877,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="18"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2754,16 +2912,16 @@
       <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2786,16 +2944,16 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="5" t="s">
         <v>4</v>
       </c>
@@ -2943,7 +3101,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="10"/>
@@ -2972,7 +3130,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C39" s="25"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2996,7 +3154,7 @@
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="10"/>
@@ -3025,7 +3183,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C41" s="25"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -3049,7 +3207,7 @@
       <c r="X41" s="13"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="10"/>
@@ -3078,7 +3236,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C43" s="25"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -3102,7 +3260,7 @@
       <c r="X43" s="13"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="10"/>
@@ -3131,7 +3289,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C45" s="25"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -3155,7 +3313,7 @@
       <c r="X45" s="13"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="10"/>
@@ -3184,7 +3342,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C47" s="25"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -3208,7 +3366,7 @@
       <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="10"/>
@@ -3234,7 +3392,7 @@
       <c r="X48" s="10"/>
     </row>
     <row r="49" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C49" s="25"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -3261,7 +3419,7 @@
       </c>
     </row>
     <row r="50" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="10"/>
@@ -3290,7 +3448,7 @@
       </c>
     </row>
     <row r="51" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C51" s="25"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -3314,7 +3472,7 @@
       <c r="X51" s="13"/>
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D52" s="10"/>
@@ -3343,7 +3501,7 @@
       </c>
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C53" s="25"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -3374,7 +3532,7 @@
       </c>
     </row>
     <row r="54" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C54" s="24"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -3401,7 +3559,7 @@
       </c>
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C55" s="25"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -3425,7 +3583,7 @@
       <c r="X55" s="13"/>
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="10"/>
@@ -3454,7 +3612,7 @@
       </c>
     </row>
     <row r="57" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C57" s="25"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
@@ -3478,7 +3636,7 @@
       <c r="X57" s="13"/>
     </row>
     <row r="58" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="10"/>
@@ -3507,7 +3665,7 @@
       </c>
     </row>
     <row r="59" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C59" s="25"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -3531,7 +3689,7 @@
       <c r="X59" s="13"/>
     </row>
     <row r="60" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="10"/>
@@ -3560,7 +3718,7 @@
       </c>
     </row>
     <row r="61" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C61" s="25"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
@@ -3587,7 +3745,7 @@
       </c>
     </row>
     <row r="62" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C62" s="24"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -3614,7 +3772,7 @@
       </c>
     </row>
     <row r="63" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C63" s="25"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -3641,7 +3799,7 @@
       </c>
     </row>
     <row r="64" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C64" s="24"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -3668,7 +3826,7 @@
       </c>
     </row>
     <row r="65" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C65" s="25"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
@@ -3695,7 +3853,7 @@
       </c>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D66" s="10"/>
@@ -3724,7 +3882,7 @@
       </c>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C67" s="25"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -3748,7 +3906,7 @@
       <c r="X67" s="13"/>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="10"/>
@@ -3777,7 +3935,7 @@
       </c>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C69" s="25"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
@@ -3804,7 +3962,7 @@
       </c>
     </row>
     <row r="70" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C70" s="24"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -3831,7 +3989,7 @@
       </c>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C71" s="25"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -3855,7 +4013,7 @@
       <c r="X71" s="13"/>
     </row>
     <row r="72" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="17" t="s">
         <v>88</v>
       </c>
       <c r="D72" s="10"/>
@@ -3884,7 +4042,7 @@
       </c>
     </row>
     <row r="73" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C73" s="25"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
@@ -3908,7 +4066,7 @@
       <c r="X73" s="13"/>
     </row>
     <row r="74" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="10"/>
@@ -3937,7 +4095,7 @@
       </c>
     </row>
     <row r="75" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C75" s="25"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -3964,128 +4122,196 @@
       </c>
     </row>
     <row r="77" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C77" s="24"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="78" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C78" s="25"/>
+      <c r="C78" s="18"/>
     </row>
     <row r="79" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C79" s="24"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C80" s="25"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="24"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="25"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" s="24"/>
+      <c r="C83" s="17"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="25"/>
+      <c r="C84" s="18"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="24"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" s="25"/>
+      <c r="C86" s="18"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="24"/>
+      <c r="C87" s="17"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="25"/>
+      <c r="C88" s="18"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="24"/>
+      <c r="C89" s="17"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="25"/>
+      <c r="C90" s="18"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="24"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="25"/>
+      <c r="C92" s="18"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C93" s="24"/>
+      <c r="C93" s="17"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="25"/>
+      <c r="C94" s="18"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="24"/>
+      <c r="C95" s="17"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="25"/>
+      <c r="C96" s="18"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="24"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" s="25"/>
+      <c r="C98" s="18"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="24"/>
+      <c r="C99" s="17"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="25"/>
+      <c r="C100" s="18"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="24"/>
+      <c r="C101" s="17"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="25"/>
+      <c r="C102" s="18"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="24"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" s="25"/>
+      <c r="C104" s="18"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="24"/>
+      <c r="C105" s="17"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C106" s="25"/>
+      <c r="C106" s="18"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="24"/>
+      <c r="C107" s="17"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" s="25"/>
+      <c r="C108" s="18"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="24"/>
+      <c r="C109" s="17"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C110" s="25"/>
+      <c r="C110" s="18"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="24"/>
+      <c r="C111" s="17"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C112" s="25"/>
+      <c r="C112" s="18"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" s="24"/>
+      <c r="C113" s="17"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" s="25"/>
+      <c r="C114" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C109:C110"/>
     <mergeCell ref="C111:C112"/>
@@ -4102,81 +4328,13 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D38:X53">
@@ -4665,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G54" activeCellId="1" sqref="I54:I58 G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4689,7 +4847,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B2">
@@ -4701,14 +4859,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="18"/>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="0">B3*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B4">
@@ -4720,14 +4878,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="18"/>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B6">
@@ -4739,14 +4897,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="18"/>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -4758,14 +4916,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="18"/>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B10">
@@ -4777,14 +4935,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="18"/>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B12">
@@ -4796,7 +4954,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="18"/>
       <c r="B13">
         <v>6</v>
       </c>
@@ -4806,7 +4964,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B14">
@@ -4818,14 +4976,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="18"/>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B16">
@@ -4837,7 +4995,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="18"/>
       <c r="B17">
         <v>0</v>
       </c>
@@ -4851,7 +5009,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
+      <c r="A18" s="17"/>
       <c r="B18">
         <v>0</v>
       </c>
@@ -4874,14 +5032,14 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+      <c r="A19" s="18"/>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B20">
@@ -4893,14 +5051,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
+      <c r="A21" s="18"/>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B22">
@@ -4912,14 +5070,14 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="A23" s="18"/>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B24">
@@ -4944,7 +5102,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
+      <c r="A25" s="18"/>
       <c r="B25">
         <v>0</v>
       </c>
@@ -4958,7 +5116,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
+      <c r="A26" s="17"/>
       <c r="B26">
         <v>0</v>
       </c>
@@ -4972,7 +5130,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
+      <c r="A27" s="18"/>
       <c r="B27">
         <v>0</v>
       </c>
@@ -4982,7 +5140,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
+      <c r="A28" s="17"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -4992,10 +5150,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B30">
@@ -5007,14 +5165,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
+      <c r="A31" s="18"/>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B32">
@@ -5025,8 +5183,8 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="18"/>
       <c r="B33">
         <v>0</v>
       </c>
@@ -5035,8 +5193,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
       <c r="B34">
         <v>0</v>
       </c>
@@ -5045,15 +5203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="18"/>
       <c r="C35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B36">
@@ -5064,15 +5222,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
       <c r="C37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B38">
@@ -5083,8 +5241,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="18"/>
       <c r="B39">
         <v>0</v>
       </c>
@@ -5093,15 +5251,261 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="27">
+        <v>15</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="27">
+        <v>6</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="27">
+        <v>10</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="27">
+        <v>1</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="27">
+        <v>2</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="27">
+        <v>6</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27">
+        <f>SUM(B41:B46)</f>
+        <v>40</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="26">
+        <v>6</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="26">
+        <v>6</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26">
+        <f>SUM(C47:C49)</f>
+        <v>12</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="28">
+        <v>4</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28">
+        <f>SUM(B50)</f>
+        <v>4</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="29">
+        <v>9</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="29">
+        <v>6</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <f>SUM(D46:D50)</f>
+        <v>56</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F41:F52)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F54">
+        <f>SUM(D53:F53)</f>
+        <v>88</v>
+      </c>
+      <c r="H54">
+        <v>27000</v>
+      </c>
+      <c r="I54">
+        <f>H54*1.08</f>
+        <v>29160.000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F55">
+        <f>F54*1000</f>
+        <v>88000</v>
+      </c>
+      <c r="H55">
+        <v>52000</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:I58" si="1">H55*1.08</f>
+        <v>56160.000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F56">
+        <f>F55*0.08</f>
+        <v>7040</v>
+      </c>
+      <c r="H56">
+        <v>18000</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F57">
+        <f>F55+F56</f>
+        <v>95040</v>
+      </c>
+      <c r="H57">
+        <v>2000</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F58">
+        <f>SUM(B41:B46,F41,C47:C48,F48,F50,B50,C51:C52,F52)</f>
+        <v>103</v>
+      </c>
+      <c r="H58">
+        <v>6000</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F59">
+        <f>F58*0.08</f>
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F60">
+        <f>F58+F59</f>
+        <v>111.24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -5114,6 +5518,13 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2:A39">
